--- a/data/trans_orig/P6605-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>94022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79244</v>
+        <v>78729</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>113027</v>
+        <v>112257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2521416994476056</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2125110837737428</v>
+        <v>0.211130945452908</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3031083205404742</v>
+        <v>0.3010427104331283</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>40806</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29705</v>
+        <v>30576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52883</v>
+        <v>52344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2707289767178509</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1970807412470615</v>
+        <v>0.2028584166793031</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3508531645358035</v>
+        <v>0.3472769147533544</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -786,19 +786,19 @@
         <v>134828</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114673</v>
+        <v>115966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153076</v>
+        <v>158438</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2574921470878323</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2190000686664729</v>
+        <v>0.2214698028869414</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2923413924225171</v>
+        <v>0.3025821426753206</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>55767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43200</v>
+        <v>43344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70560</v>
+        <v>70610</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1495531268091245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1158505318256079</v>
+        <v>0.1162363147971423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1892240252611872</v>
+        <v>0.1893584473022409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -836,19 +836,19 @@
         <v>26419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17355</v>
+        <v>17718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37225</v>
+        <v>37380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1752798249342091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1151424834504063</v>
+        <v>0.1175528284075905</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2469678931382023</v>
+        <v>0.2480001716986124</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>78</v>
@@ -857,19 +857,19 @@
         <v>82187</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66032</v>
+        <v>65460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101274</v>
+        <v>100690</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1569586951058075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1261063903307104</v>
+        <v>0.1250137751248751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1934103404139677</v>
+        <v>0.1922952760960987</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>123826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>104035</v>
+        <v>104184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>143477</v>
+        <v>143859</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3320685295738843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2789934406714946</v>
+        <v>0.279392578041971</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3847665274226566</v>
+        <v>0.3857910477933638</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -907,19 +907,19 @@
         <v>36062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25775</v>
+        <v>25789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>47996</v>
+        <v>47289</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2392506330929244</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1710049828609789</v>
+        <v>0.171098822786653</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3184321053218609</v>
+        <v>0.3137384348774179</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>151</v>
@@ -928,19 +928,19 @@
         <v>159888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>138644</v>
+        <v>138070</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>183132</v>
+        <v>182894</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3053503993186072</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2647806336393487</v>
+        <v>0.263683608569226</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3497426040776847</v>
+        <v>0.3492868342043645</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>99278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>81880</v>
+        <v>82433</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118498</v>
+        <v>115681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2662366441693857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2195814881099761</v>
+        <v>0.2210639331496066</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3177807441717374</v>
+        <v>0.3102244635956792</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -978,19 +978,19 @@
         <v>47440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36203</v>
+        <v>36080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60028</v>
+        <v>59067</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3147405652550156</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2401891252291943</v>
+        <v>0.2393722429600518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3982592494900016</v>
+        <v>0.3918828423366763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -999,19 +999,19 @@
         <v>146718</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126336</v>
+        <v>127037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169519</v>
+        <v>168469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2801987584877529</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2412745669563546</v>
+        <v>0.2426123747076634</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3237443852754053</v>
+        <v>0.3217398844403079</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>265730</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>238658</v>
+        <v>236079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>298837</v>
+        <v>293643</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2370062167227645</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2128603345823595</v>
+        <v>0.2105595792368662</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2665339070049462</v>
+        <v>0.2619012208802692</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>158</v>
@@ -1124,19 +1124,19 @@
         <v>163151</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>140336</v>
+        <v>141936</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>186110</v>
+        <v>186619</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2818705824558456</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2424528976825247</v>
+        <v>0.2452185770710226</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3215353489539092</v>
+        <v>0.3224157079793686</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>407</v>
@@ -1145,19 +1145,19 @@
         <v>428882</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>395706</v>
+        <v>389848</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>466824</v>
+        <v>463674</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2522815244396774</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2327667060835578</v>
+        <v>0.2293205684936089</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2746001354715045</v>
+        <v>0.2727475356718282</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>258371</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>231771</v>
+        <v>228328</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>289540</v>
+        <v>285813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2304419921612711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2067175850466942</v>
+        <v>0.2036466425822954</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2582423597505084</v>
+        <v>0.2549183227940877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -1195,19 +1195,19 @@
         <v>133463</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>113064</v>
+        <v>113203</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153332</v>
+        <v>153860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2305792538433794</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.19533700935929</v>
+        <v>0.1955761279184634</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2649056950889196</v>
+        <v>0.2658181536690362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>374</v>
@@ -1216,19 +1216,19 @@
         <v>391834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>359704</v>
+        <v>355686</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>425848</v>
+        <v>427900</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2304887266775779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2115889863679216</v>
+        <v>0.2092256396620354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2504968166834252</v>
+        <v>0.2517039192227974</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>301916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>271733</v>
+        <v>274868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332252</v>
+        <v>336358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2692805082270435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2423603469581492</v>
+        <v>0.2451557132559818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2963372287744904</v>
+        <v>0.2999989935865445</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -1266,19 +1266,19 @@
         <v>162133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>141169</v>
+        <v>140732</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184396</v>
+        <v>183857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.280110760367031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2438918851021474</v>
+        <v>0.2431374167612771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3185740187300921</v>
+        <v>0.3176440090497247</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>447</v>
@@ -1287,19 +1287,19 @@
         <v>464049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>426764</v>
+        <v>425765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>498303</v>
+        <v>497933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.272967965552849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2510358701206351</v>
+        <v>0.2504482612565834</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2931175976135196</v>
+        <v>0.2928997956542597</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>295179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>266476</v>
+        <v>264000</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>329306</v>
+        <v>323897</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2632712828889209</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2376707783016042</v>
+        <v>0.2354629783849979</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2937095277630943</v>
+        <v>0.2888849417567972</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -1337,19 +1337,19 @@
         <v>120069</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101818</v>
+        <v>100399</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>140618</v>
+        <v>139660</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.207439403333744</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1759071381037011</v>
+        <v>0.1734551629176408</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2429408975952561</v>
+        <v>0.2412862516602487</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>399</v>
@@ -1358,19 +1358,19 @@
         <v>415248</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>380297</v>
+        <v>379668</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>452144</v>
+        <v>452183</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2442617833298957</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2237027958331367</v>
+        <v>0.2233326523759661</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2659649810673766</v>
+        <v>0.2659883723897487</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>156448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>136740</v>
+        <v>138113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174838</v>
+        <v>178000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3884475325882379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3395146269953721</v>
+        <v>0.3429235848601946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.434107665500041</v>
+        <v>0.4419597884828353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1483,19 +1483,19 @@
         <v>110013</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93755</v>
+        <v>94355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125393</v>
+        <v>127169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.379125006921699</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3230975305071827</v>
+        <v>0.3251626837394206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4321253270749938</v>
+        <v>0.4382460173119096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>260</v>
@@ -1504,19 +1504,19 @@
         <v>266461</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>239852</v>
+        <v>240910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>292858</v>
+        <v>292793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3845435562725301</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.346141891343433</v>
+        <v>0.3476687777004674</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4226383351262645</v>
+        <v>0.4225443929526198</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>123011</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106307</v>
+        <v>103055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>143031</v>
+        <v>139553</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3054256939924733</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2639519103701506</v>
+        <v>0.2558761670523715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3551336461828236</v>
+        <v>0.3464988661069452</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>81</v>
@@ -1554,19 +1554,19 @@
         <v>86062</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>71676</v>
+        <v>68990</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>102656</v>
+        <v>103105</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2965859706740226</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2470064313350216</v>
+        <v>0.2377527954513538</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3537694604955559</v>
+        <v>0.3553161476581244</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>198</v>
@@ -1575,19 +1575,19 @@
         <v>209073</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>186179</v>
+        <v>185049</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>234241</v>
+        <v>232716</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3017238998964261</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2686846482006978</v>
+        <v>0.2670526260338976</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3380453757238858</v>
+        <v>0.3358437784096881</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>75442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61004</v>
+        <v>60354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93149</v>
+        <v>91791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1873157049539038</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.151468597014271</v>
+        <v>0.1498536606238921</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2312811251902993</v>
+        <v>0.2279092337544171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>70</v>
@@ -1625,19 +1625,19 @@
         <v>73734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58484</v>
+        <v>59573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>89370</v>
+        <v>89464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2540992666989126</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.201545223897922</v>
+        <v>0.2052999221810338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3079857597099839</v>
+        <v>0.3083079110300946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -1646,19 +1646,19 @@
         <v>149176</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127977</v>
+        <v>128453</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170730</v>
+        <v>170855</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2152825298956608</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1846905839019411</v>
+        <v>0.1853762261934714</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2463890978375381</v>
+        <v>0.2465686662340508</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>47851</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34362</v>
+        <v>35711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61465</v>
+        <v>61442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.118811068465385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08531791594782126</v>
+        <v>0.08866859506985018</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1526124797547302</v>
+        <v>0.1525553581709905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>20</v>
@@ -1696,19 +1696,19 @@
         <v>20367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12842</v>
+        <v>13299</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30049</v>
+        <v>30368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07018975570536569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04425408838515336</v>
+        <v>0.04583057373223284</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1035530108632128</v>
+        <v>0.104653258448678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -1717,19 +1717,19 @@
         <v>68219</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53490</v>
+        <v>53395</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>85990</v>
+        <v>87115</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09845001393538309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07719339113067242</v>
+        <v>0.07705752877066323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1240960213014991</v>
+        <v>0.1257204001961336</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>516201</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>476689</v>
+        <v>478400</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>556814</v>
+        <v>554720</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2721368589611628</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2513066197098559</v>
+        <v>0.2522087307947321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2935476921354822</v>
+        <v>0.2924441785536883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>304</v>
@@ -1842,19 +1842,19 @@
         <v>313970</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286929</v>
+        <v>286529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>344544</v>
+        <v>344857</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3078989360084676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2813803680608751</v>
+        <v>0.280988560383108</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3378809589658061</v>
+        <v>0.3381885927351254</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>799</v>
@@ -1863,19 +1863,19 @@
         <v>830171</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>780667</v>
+        <v>782258</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>882151</v>
+        <v>878573</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2846403789320866</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2676667901903064</v>
+        <v>0.2682123005046379</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3024627727262275</v>
+        <v>0.301235897784019</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>437149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>398765</v>
+        <v>401091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>475190</v>
+        <v>475283</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2304614871592314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2102256023636193</v>
+        <v>0.2114521961355652</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2505164095612292</v>
+        <v>0.2505652197477518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -1913,19 +1913,19 @@
         <v>245945</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219925</v>
+        <v>221275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>276359</v>
+        <v>275806</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2411885438494533</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2156724490962074</v>
+        <v>0.2169963274329078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2710153170926271</v>
+        <v>0.2704728061930651</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>650</v>
@@ -1934,19 +1934,19 @@
         <v>683094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>637336</v>
+        <v>640304</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>734867</v>
+        <v>733559</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2342119954806022</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2185229819959207</v>
+        <v>0.2195406748424097</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2519635262702499</v>
+        <v>0.2515151705956851</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>501184</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>462759</v>
+        <v>463380</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>538769</v>
+        <v>540136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2642203542268952</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2439631215615548</v>
+        <v>0.2442902082599444</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2840348861045462</v>
+        <v>0.2847554610048452</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>257</v>
@@ -1984,19 +1984,19 @@
         <v>271928</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>243677</v>
+        <v>243556</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>301688</v>
+        <v>301285</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2666691796683144</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2389645930258059</v>
+        <v>0.2388458782345273</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.295853767190414</v>
+        <v>0.2954591979823801</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>741</v>
@@ -2005,19 +2005,19 @@
         <v>773112</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>726054</v>
+        <v>725603</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>818050</v>
+        <v>819411</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2650765387760082</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2489416891428295</v>
+        <v>0.2487871023485654</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2804843473142025</v>
+        <v>0.2809512562239426</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>442308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>404597</v>
+        <v>401639</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>481004</v>
+        <v>477679</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2331812996527106</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.213300293525769</v>
+        <v>0.2117410543333744</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2535812423782968</v>
+        <v>0.2518285732743901</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -2055,19 +2055,19 @@
         <v>187876</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164165</v>
+        <v>164665</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>215478</v>
+        <v>214260</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1842433404737647</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1609902397730698</v>
+        <v>0.161481026258557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2113110170020887</v>
+        <v>0.2101167918812747</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>601</v>
@@ -2076,19 +2076,19 @@
         <v>630185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>587416</v>
+        <v>587741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>679042</v>
+        <v>676284</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.216071086811303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2014070289460358</v>
+        <v>0.2015185638076189</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2328227155414689</v>
+        <v>0.2318772875245868</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>25878</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17368</v>
+        <v>16824</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36115</v>
+        <v>35914</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1430450150978846</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09600196077477968</v>
+        <v>0.09299580625364134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1996324004893714</v>
+        <v>0.1985216924117311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -2440,19 +2440,19 @@
         <v>32090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22643</v>
+        <v>22454</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44603</v>
+        <v>43668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2339952271967365</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.165106889618868</v>
+        <v>0.1637350163236585</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.325241719603255</v>
+        <v>0.3184226031521488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -2461,19 +2461,19 @@
         <v>57968</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44654</v>
+        <v>45005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75161</v>
+        <v>73705</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1822619586743532</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1403999111675465</v>
+        <v>0.1415036630397227</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2363198562588242</v>
+        <v>0.2317409098961825</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>38047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26669</v>
+        <v>28402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49856</v>
+        <v>50855</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2103137109590973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1474161394306128</v>
+        <v>0.1569975063491294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2755881718704211</v>
+        <v>0.2811084786682136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -2511,19 +2511,19 @@
         <v>42588</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31968</v>
+        <v>32917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53951</v>
+        <v>55151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3105447705228068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2331053993708789</v>
+        <v>0.2400265158597353</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.393407202138334</v>
+        <v>0.4021561614465106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -2532,19 +2532,19 @@
         <v>80635</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>65810</v>
+        <v>66451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97083</v>
+        <v>96443</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2535324755645871</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2069199122003231</v>
+        <v>0.2089348967162515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.305247285752093</v>
+        <v>0.3032348851098269</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>68870</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56190</v>
+        <v>56179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>82373</v>
+        <v>81723</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3806906388938766</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3105996320679003</v>
+        <v>0.3105387997061686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4553298313015428</v>
+        <v>0.4517398380494622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2582,19 +2582,19 @@
         <v>22002</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13825</v>
+        <v>14352</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31238</v>
+        <v>30689</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1604332296309353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1008104560346899</v>
+        <v>0.1046536798612886</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2277851474750189</v>
+        <v>0.2237837386852904</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -2603,19 +2603,19 @@
         <v>90872</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75145</v>
+        <v>75594</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106842</v>
+        <v>109601</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.285717552058459</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2362678455586881</v>
+        <v>0.2376809157569681</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3359315833016866</v>
+        <v>0.3446053032964375</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>48113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36746</v>
+        <v>36623</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61471</v>
+        <v>60399</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2659506350491415</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2031178618378116</v>
+        <v>0.2024378768183311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3397895181770227</v>
+        <v>0.333863516067901</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -2653,19 +2653,19 @@
         <v>40460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30047</v>
+        <v>29400</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53136</v>
+        <v>51752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2950267726495213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2190988635695094</v>
+        <v>0.2143807764635971</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3874599476903565</v>
+        <v>0.3773692331043595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -2674,19 +2674,19 @@
         <v>88573</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72415</v>
+        <v>72413</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104136</v>
+        <v>106338</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2784880137026007</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2276863750194443</v>
+        <v>0.2276804371949946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274225660064931</v>
+        <v>0.3343452642344529</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>187698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>161240</v>
+        <v>162862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>213720</v>
+        <v>215679</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2063034328184998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1772222181014087</v>
+        <v>0.1790057534345096</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2349044641258173</v>
+        <v>0.2370580675287847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -2799,19 +2799,19 @@
         <v>135100</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>115128</v>
+        <v>115138</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>158662</v>
+        <v>157120</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2362447045159238</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2013194101139522</v>
+        <v>0.2013375154969824</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2774464346152113</v>
+        <v>0.2747510107738492</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>297</v>
@@ -2820,19 +2820,19 @@
         <v>322798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>291504</v>
+        <v>289218</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>354919</v>
+        <v>356649</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2178594622753942</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1967386894096033</v>
+        <v>0.1951956393961457</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2395379388891144</v>
+        <v>0.2407056761675727</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>239349</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212438</v>
+        <v>212067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>268099</v>
+        <v>263812</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.263073632795663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2334949057740497</v>
+        <v>0.2330871187143348</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2946736974824928</v>
+        <v>0.2899613467012679</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>130</v>
@@ -2870,19 +2870,19 @@
         <v>137034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118600</v>
+        <v>116553</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158317</v>
+        <v>158756</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2396260009791568</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2073919227841744</v>
+        <v>0.2038128431695972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2768433142978015</v>
+        <v>0.2776110122103615</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>360</v>
@@ -2891,19 +2891,19 @@
         <v>376383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>341705</v>
+        <v>344083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>410140</v>
+        <v>412358</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2540238660822047</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2306198183663879</v>
+        <v>0.2322245379150954</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2768068738615749</v>
+        <v>0.2783037398227544</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>266528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241493</v>
+        <v>239403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295946</v>
+        <v>297472</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2929466271292162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2654301001125768</v>
+        <v>0.2631328257412694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.325281098009096</v>
+        <v>0.3269578836423143</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -2941,19 +2941,19 @@
         <v>157384</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>136457</v>
+        <v>136931</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182229</v>
+        <v>182282</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2752118134475353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2386176826710637</v>
+        <v>0.2394456096572045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3186578945838302</v>
+        <v>0.318749762538246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>401</v>
@@ -2962,19 +2962,19 @@
         <v>423912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>387613</v>
+        <v>390791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>460539</v>
+        <v>459077</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2861017599041654</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2616030762383769</v>
+        <v>0.2637478898540369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3108216146046681</v>
+        <v>0.3098352851697055</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>216242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>190223</v>
+        <v>189428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>244015</v>
+        <v>241400</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.237676307256621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2090779154837608</v>
+        <v>0.2082042894602664</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2682019276832004</v>
+        <v>0.2653282998600097</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>134</v>
@@ -3012,19 +3012,19 @@
         <v>142347</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>120411</v>
+        <v>123295</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>162512</v>
+        <v>164890</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2489174810573841</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2105582078566133</v>
+        <v>0.2156013313222208</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2841794403197214</v>
+        <v>0.2883380846371557</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>337</v>
@@ -3033,19 +3033,19 @@
         <v>358589</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>324636</v>
+        <v>323853</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>391888</v>
+        <v>391529</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2420149117382357</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2190995246414979</v>
+        <v>0.2185712355053225</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2644888483472005</v>
+        <v>0.264246383303897</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>111304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>94649</v>
+        <v>93876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130304</v>
+        <v>129364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3519416585064856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2992798039331124</v>
+        <v>0.2968349345680375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4120205254915604</v>
+        <v>0.4090476808187851</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -3158,19 +3158,19 @@
         <v>82352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67796</v>
+        <v>67524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99621</v>
+        <v>98403</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3505863034264227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2886204941051437</v>
+        <v>0.2874633538477032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4241055923666572</v>
+        <v>0.4189214455417035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>175</v>
@@ -3179,19 +3179,19 @@
         <v>193656</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>171035</v>
+        <v>170680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>217280</v>
+        <v>219940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3513640185358156</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3103209076265704</v>
+        <v>0.3096769545681845</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3942267836603525</v>
+        <v>0.3990528485659517</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>71000</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57752</v>
+        <v>56212</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>89491</v>
+        <v>88889</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2244996605331402</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1826094754010201</v>
+        <v>0.1777400019549811</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2829699296549149</v>
+        <v>0.281065378009874</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -3229,19 +3229,19 @@
         <v>72657</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58297</v>
+        <v>57965</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87838</v>
+        <v>88268</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.309315281580841</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2481823684170111</v>
+        <v>0.2467669795014066</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.373943622059112</v>
+        <v>0.3757733901508412</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>129</v>
@@ -3250,19 +3250,19 @@
         <v>143657</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>123995</v>
+        <v>121732</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>167611</v>
+        <v>166752</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.260647304479015</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.224973727815899</v>
+        <v>0.2208681440186611</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3041098327343813</v>
+        <v>0.3025501835370723</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>85121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68502</v>
+        <v>67510</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103085</v>
+        <v>103704</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2691524484799272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2166018066563586</v>
+        <v>0.2134664439280529</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3259520390045602</v>
+        <v>0.327910623870202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3300,19 +3300,19 @@
         <v>53366</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39489</v>
+        <v>40409</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68013</v>
+        <v>68570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2271902300039159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1681118753349057</v>
+        <v>0.1720291498643079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2895442559148961</v>
+        <v>0.2919145305945483</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -3321,19 +3321,19 @@
         <v>138488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117753</v>
+        <v>117611</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161398</v>
+        <v>161888</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2512685337727911</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2136484118461457</v>
+        <v>0.2133899965702859</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2928367026516456</v>
+        <v>0.2937247789768497</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>48832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35885</v>
+        <v>35235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63320</v>
+        <v>63625</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1544062324804471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1134668058657762</v>
+        <v>0.1114111195848278</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2002158625388608</v>
+        <v>0.2011823771249973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -3371,19 +3371,19 @@
         <v>26522</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16818</v>
+        <v>17833</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37035</v>
+        <v>38037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1129081849888204</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07159522401185979</v>
+        <v>0.07591806469283602</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1576639006785924</v>
+        <v>0.1619289350344</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -3392,19 +3392,19 @@
         <v>75354</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>59099</v>
+        <v>60041</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92280</v>
+        <v>96151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1367201432123784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1072278524582395</v>
+        <v>0.1089361579763984</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1674300646076364</v>
+        <v>0.1744539220094966</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>324880</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>296144</v>
+        <v>292721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>360403</v>
+        <v>363588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2309058537442876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2104818592729752</v>
+        <v>0.2080489547276617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2561535609242173</v>
+        <v>0.2584169950594301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>226</v>
@@ -3517,19 +3517,19 @@
         <v>249542</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>223774</v>
+        <v>225138</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>279292</v>
+        <v>280189</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2643726452868543</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.23707409235201</v>
+        <v>0.2385185949037778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2958917074228352</v>
+        <v>0.2968411436988787</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>524</v>
@@ -3538,19 +3538,19 @@
         <v>574422</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>532948</v>
+        <v>530637</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>619106</v>
+        <v>620422</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.244343073396861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2267013170448307</v>
+        <v>0.2257182541238195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2633505010041653</v>
+        <v>0.2639100380936842</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>348396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>314480</v>
+        <v>314701</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>380116</v>
+        <v>381125</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2476192778434716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2235137967024029</v>
+        <v>0.2236709457187746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2701640071734431</v>
+        <v>0.2708810686012579</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>236</v>
@@ -3588,19 +3588,19 @@
         <v>252279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>224679</v>
+        <v>223147</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>280833</v>
+        <v>278851</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.26727249434873</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2380319510608883</v>
+        <v>0.2364092741641068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2975238541465564</v>
+        <v>0.2954243227808371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>566</v>
@@ -3609,19 +3609,19 @@
         <v>600675</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>558392</v>
+        <v>558541</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>644173</v>
+        <v>648095</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2555102221165383</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2375242420555819</v>
+        <v>0.2375878488194897</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2740131236789871</v>
+        <v>0.2756815000118512</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>420519</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>383785</v>
+        <v>383099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>455482</v>
+        <v>455838</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2988802742614795</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2727717852065165</v>
+        <v>0.2722842818569241</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3237298264316382</v>
+        <v>0.3239825856585542</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>212</v>
@@ -3659,19 +3659,19 @@
         <v>232752</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>206195</v>
+        <v>206508</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>262772</v>
+        <v>261187</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2465850950865895</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.218449649505046</v>
+        <v>0.2187815628366724</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2783893043712232</v>
+        <v>0.2767102099976231</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>611</v>
@@ -3680,19 +3680,19 @@
         <v>653271</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>611076</v>
+        <v>611172</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>701011</v>
+        <v>695475</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2778832865923775</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.259934842767246</v>
+        <v>0.2599755632580685</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2981905319857445</v>
+        <v>0.2958354449671787</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>313187</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>281355</v>
+        <v>282273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>346246</v>
+        <v>342262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2225945941507614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.199970242536098</v>
+        <v>0.2006229192068596</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2460912244958766</v>
+        <v>0.2432593519372679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>197</v>
@@ -3730,19 +3730,19 @@
         <v>209329</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183733</v>
+        <v>184935</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234034</v>
+        <v>234479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2217697652778262</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1946526785258759</v>
+        <v>0.1959263159952438</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2479429596111445</v>
+        <v>0.2484144442019545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>490</v>
@@ -3751,19 +3751,19 @@
         <v>522515</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>484708</v>
+        <v>481432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>568460</v>
+        <v>568010</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2222634178942231</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2061813473556583</v>
+        <v>0.2047879387853821</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2418068126485452</v>
+        <v>0.2416154473884721</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>17824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10898</v>
+        <v>11180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27653</v>
+        <v>26691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.13006614582713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07952083707722914</v>
+        <v>0.08158210547200331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2017850374481256</v>
+        <v>0.1947715691480421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -4115,19 +4115,19 @@
         <v>14073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8311</v>
+        <v>8339</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21593</v>
+        <v>20816</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2035855072400607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.120226481482484</v>
+        <v>0.1206258645634295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3123634340340776</v>
+        <v>0.3011178205533051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4136,19 +4136,19 @@
         <v>31898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21679</v>
+        <v>23071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42518</v>
+        <v>42986</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1547172630957674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1051522828790095</v>
+        <v>0.1119043941744644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2062276199457748</v>
+        <v>0.208498845321536</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>33507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24009</v>
+        <v>24588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44174</v>
+        <v>44974</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2445065082628319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1751955202611201</v>
+        <v>0.1794218289938848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3223455039576509</v>
+        <v>0.3281848715940452</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -4186,19 +4186,19 @@
         <v>18064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11183</v>
+        <v>11976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26083</v>
+        <v>26762</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2613144658628399</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1617730141288942</v>
+        <v>0.1732407077532272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3773118733321755</v>
+        <v>0.3871385484281489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>49</v>
@@ -4207,19 +4207,19 @@
         <v>51571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>39689</v>
+        <v>40794</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64505</v>
+        <v>65548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2501422336810237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1925059988306111</v>
+        <v>0.1978683277132361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3128746777327505</v>
+        <v>0.3179324953313558</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>43766</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33116</v>
+        <v>33086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>55055</v>
+        <v>55514</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3193655990265754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2416528110038727</v>
+        <v>0.2414349881895138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4017405242167476</v>
+        <v>0.4050934917844515</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -4257,19 +4257,19 @@
         <v>17718</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11232</v>
+        <v>11114</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25961</v>
+        <v>25380</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.256308965958904</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1624859944735887</v>
+        <v>0.1607765466826619</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3755487379296691</v>
+        <v>0.3671485008822334</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>61</v>
@@ -4278,19 +4278,19 @@
         <v>61484</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47407</v>
+        <v>48366</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>75207</v>
+        <v>74944</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2982226453006033</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2299415154814494</v>
+        <v>0.2345949678213346</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3647830340200532</v>
+        <v>0.3635073319644216</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>41943</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31479</v>
+        <v>31438</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54543</v>
+        <v>53697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3060617468834628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2297048163749595</v>
+        <v>0.2294105115222973</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3980085162928825</v>
+        <v>0.3918341208152554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -4328,19 +4328,19 @@
         <v>19272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12230</v>
+        <v>13301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27216</v>
+        <v>26882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2787910609381954</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.17691907585987</v>
+        <v>0.1924107936322885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3937101976704718</v>
+        <v>0.388870896057737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4349,19 +4349,19 @@
         <v>61215</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>48097</v>
+        <v>48718</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74551</v>
+        <v>75111</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2969178579226056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2332888768722774</v>
+        <v>0.2363031799815498</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.361601371998667</v>
+        <v>0.3643203189400866</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>231593</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>204253</v>
+        <v>203901</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>261838</v>
+        <v>259248</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.251866774831848</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2221342249046171</v>
+        <v>0.2217509484659791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2847598264424654</v>
+        <v>0.281943577440543</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>186</v>
@@ -4474,19 +4474,19 @@
         <v>190164</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>169417</v>
+        <v>168354</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>215485</v>
+        <v>216245</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2932074894553683</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2612175403716855</v>
+        <v>0.2595797458309064</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3322483425300004</v>
+        <v>0.3334204392820585</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>403</v>
@@ -4495,19 +4495,19 @@
         <v>421757</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>383707</v>
+        <v>390529</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>453336</v>
+        <v>463205</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2689656090136682</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2447001056239542</v>
+        <v>0.2490509612844516</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2891046387027573</v>
+        <v>0.2953985679159044</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>225346</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198016</v>
+        <v>199315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251427</v>
+        <v>252901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2450731823466489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2153503482851793</v>
+        <v>0.216763804010466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2734375443912704</v>
+        <v>0.2750408417845603</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -4545,19 +4545,19 @@
         <v>174696</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152533</v>
+        <v>153318</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197139</v>
+        <v>198458</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2693584934171175</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2351857525106128</v>
+        <v>0.2363958924979115</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3039612140336489</v>
+        <v>0.3059950961770337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>385</v>
@@ -4566,19 +4566,19 @@
         <v>400042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>366956</v>
+        <v>366083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>437589</v>
+        <v>432004</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.255117771822894</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2340175710869061</v>
+        <v>0.2334612516612989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2790624555947535</v>
+        <v>0.2755004614985641</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>276051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248733</v>
+        <v>245226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304454</v>
+        <v>306222</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3002168133625339</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2705082705308609</v>
+        <v>0.2666936605859176</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3311066362987639</v>
+        <v>0.3330291564549329</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -4616,19 +4616,19 @@
         <v>148246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>128417</v>
+        <v>128361</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171168</v>
+        <v>171164</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2285760558451239</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1980009727941325</v>
+        <v>0.1979148890937846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2639173133644399</v>
+        <v>0.2639112002341673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>408</v>
@@ -4637,19 +4637,19 @@
         <v>424297</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392437</v>
+        <v>392992</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>462795</v>
+        <v>460911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2705856508486367</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2502677955041757</v>
+        <v>0.2506215528107798</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2951370502007125</v>
+        <v>0.2939351592015547</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>186515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>162319</v>
+        <v>162719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>213905</v>
+        <v>214645</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2028432294589692</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1765287806404645</v>
+        <v>0.176963434071701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2326308038938152</v>
+        <v>0.2334357675844942</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>128</v>
@@ -4687,19 +4687,19 @@
         <v>135458</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114702</v>
+        <v>113635</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>157738</v>
+        <v>156631</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2088579612823903</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1768548432021924</v>
+        <v>0.1752093134864788</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2432103143793642</v>
+        <v>0.2415039199667386</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>298</v>
@@ -4708,19 +4708,19 @@
         <v>321973</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>290558</v>
+        <v>291832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>359128</v>
+        <v>356567</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2053309683148012</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1852970005297279</v>
+        <v>0.1861093663123622</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2290254119086672</v>
+        <v>0.2273924462010005</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>158778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139862</v>
+        <v>139698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178725</v>
+        <v>178507</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4581886952033481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4036027997730721</v>
+        <v>0.4031304447551939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5157504368129464</v>
+        <v>0.5151223772113959</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -4833,19 +4833,19 @@
         <v>128704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112268</v>
+        <v>111930</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145661</v>
+        <v>146696</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4186222661283082</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.365163063137364</v>
+        <v>0.3640625297732837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4737770432956251</v>
+        <v>0.4771413089293939</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>271</v>
@@ -4854,19 +4854,19 @@
         <v>287483</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>259592</v>
+        <v>260892</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>311463</v>
+        <v>313925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.439587870980117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3969411354403654</v>
+        <v>0.3989284206106404</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4762559694628042</v>
+        <v>0.4800209477539822</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>87668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>72586</v>
+        <v>71740</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>105670</v>
+        <v>105050</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2529864498597255</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2094626243822843</v>
+        <v>0.2070227671595928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3049344141515403</v>
+        <v>0.3031457013025528</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>65</v>
@@ -4904,19 +4904,19 @@
         <v>66922</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>53987</v>
+        <v>52280</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>83601</v>
+        <v>82662</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2176713701587258</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1755981466625207</v>
+        <v>0.1700470156864307</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2719204785398618</v>
+        <v>0.2688662521845143</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>145</v>
@@ -4925,19 +4925,19 @@
         <v>154591</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>133582</v>
+        <v>131714</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>177761</v>
+        <v>176014</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2363842543797678</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.20426016126719</v>
+        <v>0.2014035111239426</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2718133898024651</v>
+        <v>0.2691413254165214</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>59437</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46349</v>
+        <v>46323</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75863</v>
+        <v>76019</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1715183797637618</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1337503755748452</v>
+        <v>0.1336743765373545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2189185670632231</v>
+        <v>0.219368766338165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>61</v>
@@ -4975,19 +4975,19 @@
         <v>61552</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47856</v>
+        <v>47436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75437</v>
+        <v>76206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2002038808252664</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1556557341664665</v>
+        <v>0.1542884264503327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2453659052248964</v>
+        <v>0.2478664710109697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -4996,19 +4996,19 @@
         <v>120989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>100786</v>
+        <v>100282</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142302</v>
+        <v>140353</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1850039020985776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1541105478224679</v>
+        <v>0.1533410511052912</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2175930545224071</v>
+        <v>0.2146134862226852</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>40651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29648</v>
+        <v>29641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54423</v>
+        <v>53439</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1173064751731647</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08555612533839989</v>
+        <v>0.08553432768902132</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1570486686299983</v>
+        <v>0.1542107581527096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -5046,19 +5046,19 @@
         <v>50268</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>36417</v>
+        <v>38046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>63517</v>
+        <v>65070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1635024828876996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.118450287213256</v>
+        <v>0.1237493124571837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2065945637811382</v>
+        <v>0.211646624793471</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>84</v>
@@ -5067,19 +5067,19 @@
         <v>90919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73511</v>
+        <v>74353</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>108872</v>
+        <v>110255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1390239725415376</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1124046144962239</v>
+        <v>0.1136926450236995</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1664760527668633</v>
+        <v>0.1685903026182267</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>408195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>373573</v>
+        <v>374764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>441575</v>
+        <v>445678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2909281153882136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2662524402451296</v>
+        <v>0.2671010095074465</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3147190315899276</v>
+        <v>0.3176428233590798</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>326</v>
@@ -5192,19 +5192,19 @@
         <v>332942</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>302701</v>
+        <v>303725</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>362972</v>
+        <v>362174</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3247768372955102</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2952773771159978</v>
+        <v>0.2962763126291053</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3540706598266519</v>
+        <v>0.3532922857532042</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>705</v>
@@ -5213,19 +5213,19 @@
         <v>741137</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>697016</v>
+        <v>693528</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>789169</v>
+        <v>787326</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3052183091847017</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2870480597068827</v>
+        <v>0.2856117064662837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3249989479100047</v>
+        <v>0.3242402856781399</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>346521</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>315685</v>
+        <v>313164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>379872</v>
+        <v>380744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2469722653395666</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2249947748583603</v>
+        <v>0.2231978057648427</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2707418378462519</v>
+        <v>0.2713635166947443</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>255</v>
@@ -5263,19 +5263,19 @@
         <v>259683</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>234921</v>
+        <v>233224</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>292457</v>
+        <v>287529</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2533147090866479</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2291600477521725</v>
+        <v>0.2275044979994963</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2852844540839359</v>
+        <v>0.28047735255462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>579</v>
@@ -5284,19 +5284,19 @@
         <v>606205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>566511</v>
+        <v>565799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>649647</v>
+        <v>651516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2496499070696545</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2333030730121204</v>
+        <v>0.2330097023638298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2675404769493101</v>
+        <v>0.2683101659372383</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>379253</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>347886</v>
+        <v>342688</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>414003</v>
+        <v>411889</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2703009600919878</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2479446123467465</v>
+        <v>0.2442403586711662</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2950679566783972</v>
+        <v>0.2935610221998761</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>227</v>
@@ -5334,19 +5334,19 @@
         <v>227517</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>201263</v>
+        <v>200616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>254674</v>
+        <v>253148</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2219371418695615</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1963268730734168</v>
+        <v>0.1956956581318309</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2484282987221305</v>
+        <v>0.2469392815345879</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>584</v>
@@ -5355,19 +5355,19 @@
         <v>606770</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>565063</v>
+        <v>565714</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>648924</v>
+        <v>650578</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2498828084988663</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.232706663284988</v>
+        <v>0.2329748015302036</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2672428609003206</v>
+        <v>0.2679240955376824</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>269108</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>239784</v>
+        <v>238972</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>301416</v>
+        <v>298311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.191798659180232</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1708987495222646</v>
+        <v>0.1703196396723348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2148251246412569</v>
+        <v>0.2126115831226336</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>193</v>
@@ -5405,19 +5405,19 @@
         <v>204999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>179554</v>
+        <v>176700</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>230314</v>
+        <v>231336</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1999713117482804</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1751501363454691</v>
+        <v>0.1723662522139334</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2246659680932306</v>
+        <v>0.2256628786896499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>438</v>
@@ -5426,19 +5426,19 @@
         <v>474107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>434767</v>
+        <v>437301</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>515411</v>
+        <v>517379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1952489752467776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1790477628105323</v>
+        <v>0.1800911860919558</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2122588288628239</v>
+        <v>0.2130691860384472</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>13007</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6701</v>
+        <v>6354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22246</v>
+        <v>22672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1502238833804556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07738741939196625</v>
+        <v>0.07338660036685153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2569254854649761</v>
+        <v>0.2618478185224881</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5790,19 +5790,19 @@
         <v>4873</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2339</v>
+        <v>1990</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9916</v>
+        <v>9372</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1104707800497893</v>
+        <v>0.1104707800497892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05303550684775227</v>
+        <v>0.04510773286044167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2248066719881651</v>
+        <v>0.2124846000538776</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -5811,19 +5811,19 @@
         <v>17880</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10779</v>
+        <v>10948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28190</v>
+        <v>28907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1368071010071311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08247570909828039</v>
+        <v>0.08376584327773333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2156985009087628</v>
+        <v>0.2211850708442362</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>11206</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5841</v>
+        <v>5944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19924</v>
+        <v>20247</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1294274507446688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06746377746242083</v>
+        <v>0.06865018190759427</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2301081018712301</v>
+        <v>0.233839916574506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -5861,19 +5861,19 @@
         <v>15070</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9667</v>
+        <v>9820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20859</v>
+        <v>21086</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3416486927859703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2191562255343292</v>
+        <v>0.2226284989721585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4728944675975785</v>
+        <v>0.478037701987915</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -5882,19 +5882,19 @@
         <v>26276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18871</v>
+        <v>17701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36534</v>
+        <v>36428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2010527071625313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.144389215808352</v>
+        <v>0.1354357402283762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2795406372295503</v>
+        <v>0.2787290832071463</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>30707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21222</v>
+        <v>21139</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40778</v>
+        <v>41824</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3546474856834401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2451034801084425</v>
+        <v>0.2441397281150988</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4709698271047734</v>
+        <v>0.4830482951265148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -5932,19 +5932,19 @@
         <v>14689</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9763</v>
+        <v>9966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20486</v>
+        <v>20782</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3330140318489741</v>
+        <v>0.3330140318489742</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2213323838458959</v>
+        <v>0.2259335510080493</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4644422184129103</v>
+        <v>0.471150210830861</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>48</v>
@@ -5953,19 +5953,19 @@
         <v>45396</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33715</v>
+        <v>35023</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56542</v>
+        <v>57536</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3473461351532417</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2579681509486311</v>
+        <v>0.267980831253904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4326352866078313</v>
+        <v>0.4402388489489153</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>31664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22337</v>
+        <v>22114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44462</v>
+        <v>43492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3657011801914355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2579749518776856</v>
+        <v>0.2554048235293853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5135077957189023</v>
+        <v>0.5023155811367538</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -6003,19 +6003,19 @@
         <v>9478</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4906</v>
+        <v>5616</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15813</v>
+        <v>15864</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2148664953152662</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1112343564453865</v>
+        <v>0.1273141089678373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3584902640253234</v>
+        <v>0.3596596447116944</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -6024,19 +6024,19 @@
         <v>41141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29398</v>
+        <v>29651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55355</v>
+        <v>54878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3147940566770958</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2249402777138698</v>
+        <v>0.2268783793512249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.42354855214137</v>
+        <v>0.4199002592739166</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>111919</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>93364</v>
+        <v>93812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>135359</v>
+        <v>136629</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1814391967885688</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1513587865292556</v>
+        <v>0.1520847691757322</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2194389398377001</v>
+        <v>0.2214978727181314</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>124</v>
@@ -6149,19 +6149,19 @@
         <v>99927</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>84115</v>
+        <v>85125</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>116123</v>
+        <v>116756</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2226461033866058</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1874155898121517</v>
+        <v>0.1896662360868025</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2587327657452689</v>
+        <v>0.2601418052167688</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>217</v>
@@ -6170,19 +6170,19 @@
         <v>211846</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>184912</v>
+        <v>185524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>237919</v>
+        <v>239948</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1987940531703352</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1735190317166279</v>
+        <v>0.1740937477351303</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2232604675118154</v>
+        <v>0.2251648461874713</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>182291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158716</v>
+        <v>159281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206829</v>
+        <v>207104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2955234772942236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2573038722792154</v>
+        <v>0.258219923281527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3353037496083356</v>
+        <v>0.3357500210180037</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>186</v>
@@ -6220,19 +6220,19 @@
         <v>135188</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119135</v>
+        <v>118722</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155577</v>
+        <v>151666</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3012101658811548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2654420807721826</v>
+        <v>0.2645218185348472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3466382277014995</v>
+        <v>0.3379236477083013</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -6241,19 +6241,19 @@
         <v>317479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>288071</v>
+        <v>288670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>351259</v>
+        <v>349577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2979185045326605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2703226450872144</v>
+        <v>0.2708846022435303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3296174562376953</v>
+        <v>0.3280388530979744</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>219437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>193727</v>
+        <v>193228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247694</v>
+        <v>245091</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3557439611412834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3140630692829697</v>
+        <v>0.3132548845890053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4015527744780324</v>
+        <v>0.3973331282250812</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>172</v>
@@ -6291,19 +6291,19 @@
         <v>126525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>110821</v>
+        <v>109064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143475</v>
+        <v>143442</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2819073414753717</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2469178156659379</v>
+        <v>0.2430039458499929</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3196749422915428</v>
+        <v>0.3196007073833564</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>362</v>
@@ -6312,19 +6312,19 @@
         <v>345962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>313200</v>
+        <v>319656</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377750</v>
+        <v>378305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3246466515927416</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2939033558197222</v>
+        <v>0.2999616561790399</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3544764549114204</v>
+        <v>0.3549966816442212</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>103193</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81537</v>
+        <v>82478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129351</v>
+        <v>126742</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1672933647759241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1321849047154176</v>
+        <v>0.1337110451792831</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2096986706241637</v>
+        <v>0.2054686770861764</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -6362,19 +6362,19 @@
         <v>87176</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>71473</v>
+        <v>72246</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102496</v>
+        <v>104311</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1942363892568677</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1592485815082994</v>
+        <v>0.1609704679357145</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2283700413285071</v>
+        <v>0.2324141912992454</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>181</v>
@@ -6383,19 +6383,19 @@
         <v>190370</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>164778</v>
+        <v>167325</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>217235</v>
+        <v>222233</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1786407907042628</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1546256248948375</v>
+        <v>0.1570153659206277</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2038511939753702</v>
+        <v>0.2085405960745087</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>148221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130240</v>
+        <v>129517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>165606</v>
+        <v>165989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5630768179238576</v>
+        <v>0.5630768179238573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4947699627275723</v>
+        <v>0.4920204535597149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6291201028672614</v>
+        <v>0.6305752715993006</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -6508,19 +6508,19 @@
         <v>102808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90281</v>
+        <v>89086</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115691</v>
+        <v>116739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.470736133793871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4133802752120492</v>
+        <v>0.4079086078659882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5297267953601617</v>
+        <v>0.534522921394773</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>251</v>
@@ -6529,19 +6529,19 @@
         <v>251029</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>224644</v>
+        <v>226811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>271098</v>
+        <v>271528</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5212045884898259</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4664226434037442</v>
+        <v>0.4709210979572532</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5628730581820454</v>
+        <v>0.5637656498528739</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>55915</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>43303</v>
+        <v>42159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>71394</v>
+        <v>70299</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2124151339719492</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1645033852930511</v>
+        <v>0.1601572131949724</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2712195913068983</v>
+        <v>0.2670592207289559</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>95</v>
@@ -6579,19 +6579,19 @@
         <v>61069</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>50610</v>
+        <v>51014</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>72946</v>
+        <v>72326</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.279624317379809</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2317311031319186</v>
+        <v>0.2335841506461041</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3340029505231067</v>
+        <v>0.331168230568707</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>150</v>
@@ -6600,19 +6600,19 @@
         <v>116984</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>99613</v>
+        <v>100569</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>137471</v>
+        <v>135263</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2428913901773539</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2068231989502318</v>
+        <v>0.2088081751515445</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2854270161370602</v>
+        <v>0.2808429608319182</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>37722</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27294</v>
+        <v>27216</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49822</v>
+        <v>49781</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1433019167814272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1036877914598602</v>
+        <v>0.1033919758511819</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1892674797064219</v>
+        <v>0.1891125953650617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6650,19 +6650,19 @@
         <v>31275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23482</v>
+        <v>23024</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41420</v>
+        <v>40848</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1431996452018384</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1075198891636899</v>
+        <v>0.1054202679174031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1896549403410088</v>
+        <v>0.1870355375741819</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -6671,19 +6671,19 @@
         <v>68996</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>55077</v>
+        <v>55449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83638</v>
+        <v>85262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1432555413502132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1143542838295779</v>
+        <v>0.1151263664818244</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1736552897780583</v>
+        <v>0.1770263551430732</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>21376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11828</v>
+        <v>11502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36401</v>
+        <v>35892</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08120613132276604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04493261658345289</v>
+        <v>0.04369471684623713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1382838623090245</v>
+        <v>0.1363498169647609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -6721,19 +6721,19 @@
         <v>23246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15865</v>
+        <v>15579</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33524</v>
+        <v>33993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1064399036244816</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07264104850447546</v>
+        <v>0.07133290632987585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.153498935196586</v>
+        <v>0.1556490976392197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -6742,19 +6742,19 @@
         <v>44622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32639</v>
+        <v>32654</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62417</v>
+        <v>61658</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.09264847998260699</v>
+        <v>0.09264847998260697</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06776742370464961</v>
+        <v>0.06779893688556221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1295947586185023</v>
+        <v>0.128017971155528</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>273147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>243988</v>
+        <v>242792</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>304609</v>
+        <v>304704</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2825682932056489</v>
+        <v>0.2825682932056488</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.252403191050123</v>
+        <v>0.251166156567475</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3151152711898417</v>
+        <v>0.3152138435880306</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>262</v>
@@ -6867,19 +6867,19 @@
         <v>207608</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>187458</v>
+        <v>185485</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230511</v>
+        <v>230709</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2918612785324515</v>
+        <v>0.2918612785324514</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2635339576173394</v>
+        <v>0.2607610248251095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3240593246928456</v>
+        <v>0.3243379371152393</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>486</v>
@@ -6888,19 +6888,19 @@
         <v>480755</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>443278</v>
+        <v>441573</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>517722</v>
+        <v>518225</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2865077372292047</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2641732743099571</v>
+        <v>0.2631574641188503</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3085382888938262</v>
+        <v>0.3088382108617725</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>249412</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221801</v>
+        <v>219463</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279407</v>
+        <v>278247</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2580147128746522</v>
+        <v>0.2580147128746521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2294512275727926</v>
+        <v>0.2270324528317844</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2890436954333208</v>
+        <v>0.2878443086518811</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>303</v>
@@ -6938,19 +6938,19 @@
         <v>211327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189824</v>
+        <v>188318</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234471</v>
+        <v>232346</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2970902529942834</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2668598411706016</v>
+        <v>0.2647428420170861</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3296268946130682</v>
+        <v>0.326639645269151</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>530</v>
@@ -6959,19 +6959,19 @@
         <v>460739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>424380</v>
+        <v>427079</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495979</v>
+        <v>497541</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2745794547286526</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2529108035973515</v>
+        <v>0.254519271836069</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2955806175685838</v>
+        <v>0.2965115399130349</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>287866</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>256895</v>
+        <v>257636</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>316580</v>
+        <v>318819</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2977949240707755</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2657559835587703</v>
+        <v>0.2665218820318269</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3274996232784532</v>
+        <v>0.3298156720077304</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>236</v>
@@ -7009,19 +7009,19 @@
         <v>172488</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>152844</v>
+        <v>151060</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>194375</v>
+        <v>192984</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2424889941771688</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2148722068984314</v>
+        <v>0.212364467923391</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2732582276671274</v>
+        <v>0.2713025379902851</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>490</v>
@@ -7030,19 +7030,19 @@
         <v>460354</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>425433</v>
+        <v>425273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>499787</v>
+        <v>500802</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2743498623037909</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2535385397340471</v>
+        <v>0.2534432338542644</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2978499000157802</v>
+        <v>0.2984548138223033</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>156233</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129275</v>
+        <v>130378</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185352</v>
+        <v>185003</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1616220698489235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1337340375348038</v>
+        <v>0.1348746905351852</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1917452271583619</v>
+        <v>0.1913834499904455</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>143</v>
@@ -7080,19 +7080,19 @@
         <v>119900</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102491</v>
+        <v>99941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>141503</v>
+        <v>137937</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1685594742960965</v>
+        <v>0.1685594742960964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1440855527452742</v>
+        <v>0.1405000772995003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1989295346327516</v>
+        <v>0.1939157840973183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -7101,19 +7101,19 @@
         <v>276134</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>245763</v>
+        <v>243846</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>313608</v>
+        <v>310292</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1645629457383518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1464632562709717</v>
+        <v>0.1453208248321454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1868959411750468</v>
+        <v>0.1849197417235562</v>
       </c>
     </row>
     <row r="23">
